--- a/data/recibos.xlsx
+++ b/data/recibos.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fmanc\Documents\Personal\Coder House\Javascript\Proyecto Final\proyecto-final-js\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27140F0F-DFDF-496D-B188-E86A94B817DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680390B3-30B2-4452-BAFE-C5101BCD7742}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{C80BB02D-224E-4601-8ACD-3550FF9DDC46}"/>
   </bookViews>
   <sheets>
-    <sheet name="recibos" sheetId="1" r:id="rId1"/>
+    <sheet name="liquidaciones" sheetId="2" r:id="rId1"/>
+    <sheet name="recibos" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Federico Peralta Ramos"</t>
   </si>
@@ -79,6 +80,48 @@
   </si>
   <si>
     <t>Natalia Argarete Soteldo</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>periodo</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>abierta</t>
+  </si>
+  <si>
+    <t>fechaPago</t>
+  </si>
+  <si>
+    <t>2022/02/05</t>
+  </si>
+  <si>
+    <t>idLiquidacion</t>
+  </si>
+  <si>
+    <t>Enero  de 2022</t>
+  </si>
+  <si>
+    <t>Noviembre 2021</t>
+  </si>
+  <si>
+    <t>Diciembre 2021</t>
+  </si>
+  <si>
+    <t>cerrada</t>
+  </si>
+  <si>
+    <t>2021/12/04</t>
+  </si>
+  <si>
+    <t>2022/01/06</t>
   </si>
 </sst>
 </file>
@@ -114,9 +157,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,302 +476,469 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582620EB-96DE-4FF2-937B-26555B019C12}">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4A48EB-FF6B-467F-A1CF-332A624C13A5}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="28.453125" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" customWidth="1"/>
     <col min="4" max="4" width="14.90625" customWidth="1"/>
-    <col min="5" max="5" width="13.90625" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>202111</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>202112</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>202201</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582620EB-96DE-4FF2-937B-26555B019C12}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="4" max="4" width="28.453125" customWidth="1"/>
+    <col min="5" max="5" width="14.6328125" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" customWidth="1"/>
+    <col min="7" max="7" width="13.90625" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>122339</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="E2" s="1">
         <v>145612.45000000001</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>0.21</v>
       </c>
-      <c r="E2" s="1">
-        <f>C2*D2</f>
+      <c r="G2" s="1">
+        <f>E2*F2</f>
         <v>30578.6145</v>
       </c>
-      <c r="F2" s="1">
-        <f>C2-E2</f>
+      <c r="H2" s="1">
+        <f>E2-G2</f>
         <v>115033.83550000002</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>122340</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="E3" s="1">
         <v>236456.25</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>0.21</v>
       </c>
-      <c r="E3" s="1">
-        <f t="shared" ref="E3:E13" si="0">C3*D3</f>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G13" si="0">E3*F3</f>
         <v>49655.8125</v>
       </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F13" si="1">C3-E3</f>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H13" si="1">E3-G3</f>
         <v>186800.4375</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>122341</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="E4" s="1">
         <v>333281.48</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>0.21</v>
       </c>
-      <c r="E4" s="1">
+      <c r="G4" s="1">
         <f t="shared" si="0"/>
         <v>69989.110799999995</v>
       </c>
-      <c r="F4" s="1">
+      <c r="H4" s="1">
         <f t="shared" si="1"/>
         <v>263292.36919999996</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>122342</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
         <v>188233.7</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>0.2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="G5" s="1">
         <f t="shared" si="0"/>
         <v>37646.740000000005</v>
       </c>
-      <c r="F5" s="1">
+      <c r="H5" s="1">
         <f t="shared" si="1"/>
         <v>150586.96000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>122343</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
+      <c r="E6" s="1">
         <v>459678.41</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>0.19</v>
       </c>
-      <c r="E6" s="1">
+      <c r="G6" s="1">
         <f t="shared" si="0"/>
         <v>87338.897899999996</v>
       </c>
-      <c r="F6" s="1">
+      <c r="H6" s="1">
         <f t="shared" si="1"/>
         <v>372339.51209999999</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>122344</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="E7" s="1">
         <v>78956.78</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>0.2</v>
       </c>
-      <c r="E7" s="1">
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
         <v>15791.356</v>
       </c>
-      <c r="F7" s="1">
+      <c r="H7" s="1">
         <f t="shared" si="1"/>
         <v>63165.423999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
         <v>122345</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="E8" s="1">
         <v>116345.8</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>0.19</v>
       </c>
-      <c r="E8" s="1">
+      <c r="G8" s="1">
         <f t="shared" si="0"/>
         <v>22105.702000000001</v>
       </c>
-      <c r="F8" s="1">
+      <c r="H8" s="1">
         <f t="shared" si="1"/>
         <v>94240.097999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
         <v>122346</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1">
+      <c r="E9" s="1">
         <v>289434.90000000002</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>0.2</v>
       </c>
-      <c r="E9" s="1">
+      <c r="G9" s="1">
         <f t="shared" si="0"/>
         <v>57886.98000000001</v>
       </c>
-      <c r="F9" s="1">
+      <c r="H9" s="1">
         <f t="shared" si="1"/>
         <v>231547.92</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
         <v>122347</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
+      <c r="E10" s="1">
         <v>356970.65</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>0.21</v>
       </c>
-      <c r="E10" s="1">
+      <c r="G10" s="1">
         <f t="shared" si="0"/>
         <v>74963.836500000005</v>
       </c>
-      <c r="F10" s="1">
+      <c r="H10" s="1">
         <f t="shared" si="1"/>
         <v>282006.81350000005</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
         <v>122348</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1">
+      <c r="E11" s="1">
         <v>176956.33</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>0.19</v>
       </c>
-      <c r="E11" s="1">
+      <c r="G11" s="1">
         <f t="shared" si="0"/>
         <v>33621.702699999994</v>
       </c>
-      <c r="F11" s="1">
+      <c r="H11" s="1">
         <f t="shared" si="1"/>
         <v>143334.62729999999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>122349</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="1">
+      <c r="E12" s="1">
         <v>188233.7</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>0.2</v>
       </c>
-      <c r="E12" s="1">
+      <c r="G12" s="1">
         <f t="shared" si="0"/>
         <v>37646.740000000005</v>
       </c>
-      <c r="F12" s="1">
+      <c r="H12" s="1">
         <f t="shared" si="1"/>
         <v>150586.96000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
         <v>122350</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="1">
+      <c r="E13" s="1">
         <v>88456.2</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>0.19</v>
       </c>
-      <c r="E13" s="1">
+      <c r="G13" s="1">
         <f t="shared" si="0"/>
         <v>16806.678</v>
       </c>
-      <c r="F13" s="1">
+      <c r="H13" s="1">
         <f t="shared" si="1"/>
         <v>71649.521999999997</v>
       </c>
